--- a/江蘇慶鼎(淮安鵬鼎)/GOL-923VNW/GOL-923VNW 點位.xlsx
+++ b/江蘇慶鼎(淮安鵬鼎)/GOL-923VNW/GOL-923VNW 點位.xlsx
@@ -692,144 +692,144 @@
     <phoneticPr fontId="139" type="noConversion"/>
   </si>
   <si>
+    <t>藍燈狀態 目前</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈狀態 上一個狀態</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐門狀態</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>運作狀態</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備機況收集-機況</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方切換</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方內容變更</t>
+    <phoneticPr fontId="139" type="noConversion"/>
+  </si>
+  <si>
+    <t>開門狀態變更</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>生產開始</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>生產結束</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色信號燈狀態變更</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECS模式切換 (Online Offline Remote Local 等等)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>機器狀態改變 (Run Idle Down Pm)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備模式變更</t>
+    <phoneticPr fontId="135" type="noConversion"/>
+  </si>
+  <si>
+    <t>運作狀態(升溫 恆溫 降溫 等等)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>人機修改配方</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換目前使用中配方</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10013</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10014</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈上個狀態</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍燈目前狀態</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9590</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9591</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOL-923VNW (固定值)</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5200~ 配方組別 R5300~ 配方名稱  這些區間不能有額外資料，不然模組回傳會異常，可先清00</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9592</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9593</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9600</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9621</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位下配方後 D10500 搬移</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位下配方後 D10535 搬移</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 空氣 1 氮氣</t>
+    <phoneticPr fontId="133" type="noConversion"/>
+  </si>
+  <si>
     <t>1: 升溫 2: 恆溫 3: 冷卻 4: 生產結束 5: 手動模式</t>
     <phoneticPr fontId="139" type="noConversion"/>
   </si>
-  <si>
-    <t>藍燈狀態 目前</t>
-    <phoneticPr fontId="139" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍燈狀態 上一個狀態</t>
-    <phoneticPr fontId="139" type="noConversion"/>
-  </si>
-  <si>
-    <t>爐門狀態</t>
-    <phoneticPr fontId="139" type="noConversion"/>
-  </si>
-  <si>
-    <t>運作狀態</t>
-    <phoneticPr fontId="139" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備機況收集-機況</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方切換</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>配方內容變更</t>
-    <phoneticPr fontId="139" type="noConversion"/>
-  </si>
-  <si>
-    <t>開門狀態變更</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>生產開始</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>生產結束</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍色信號燈狀態變更</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>SECS模式切換 (Online Offline Remote Local 等等)</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>機器狀態改變 (Run Idle Down Pm)</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備模式變更</t>
-    <phoneticPr fontId="135" type="noConversion"/>
-  </si>
-  <si>
-    <t>運作狀態(升溫 恆溫 降溫 等等)</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>人機修改配方</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>切換目前使用中配方</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D10013</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D10014</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍燈上個狀態</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍燈目前狀態</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLC</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9590</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9591</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOL-923VNW (固定值)</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>R5200~ 配方組別 R5300~ 配方名稱  這些區間不能有額外資料，不然模組回傳會異常，可先清00</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9592</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9593</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9600</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9621</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位下配方後 D10500 搬移</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位下配方後 D10535 搬移</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 空氣 1 氮氣</t>
-    <phoneticPr fontId="133" type="noConversion"/>
-  </si>
 </sst>
 </file>